--- a/数据整理/stocks/A股/深证主板/000710-贝瑞基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/000710-贝瑞基因.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.43</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.36</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001966</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>001966</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+          <t>圆信永丰兴源灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,25 +710,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.80</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.75</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.80</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.75</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -734,25 +824,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000710-贝瑞基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/000710-贝瑞基因.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000710-贝瑞基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/000710-贝瑞基因.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000710-贝瑞基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/000710-贝瑞基因.xlsx
@@ -979,12 +979,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000710-贝瑞基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/000710-贝瑞基因.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,209 +453,179 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0893</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0532</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -863,180 +833,210 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005777</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发科技动力股票</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.53</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2776</t>
+          <t>0.0893</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>